--- a/巡检邮件统计_2025-07-17.xlsx
+++ b/巡检邮件统计_2025-07-17.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -96,7 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,9 +605,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>11:40</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -656,9 +665,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>11:38</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -836,9 +845,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>11:17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -972,9 +981,9 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>巡检失败</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1019,7 +1028,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr"/>
@@ -1265,9 +1274,9 @@
       <c r="P12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="O13" s="6" t="inlineStr">
-        <is>
-          <t>100.0%</t>
+      <c r="O13" s="7" t="inlineStr">
+        <is>
+          <t>93.33%</t>
         </is>
       </c>
     </row>

--- a/巡检邮件统计_2025-07-17.xlsx
+++ b/巡检邮件统计_2025-07-17.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -62,6 +62,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF9999"/>
         <bgColor rgb="00FF9999"/>
       </patternFill>
@@ -85,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -105,7 +111,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,9 +624,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>15:40</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -675,9 +684,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>14:37</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -785,9 +794,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>12:42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -795,9 +804,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>16:48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -855,9 +864,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>15:17</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -921,9 +930,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>13:46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -991,9 +1000,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>14:02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1028,7 +1037,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr"/>
@@ -1057,9 +1066,9 @@
           <t>12:10</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>12:14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1067,9 +1076,9 @@
           <t>16:10</t>
         </is>
       </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1117,9 +1126,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>12:05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1127,9 +1136,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>16:05</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1177,9 +1186,9 @@
           <t>12:10</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>12:13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1187,9 +1196,9 @@
           <t>16:10</t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>16:13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1237,9 +1246,9 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>13:28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1247,9 +1256,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="H12" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>巡检中</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1274,9 +1283,9 @@
       <c r="P12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="O13" s="7" t="inlineStr">
-        <is>
-          <t>93.33%</t>
+      <c r="O13" s="8" t="inlineStr">
+        <is>
+          <t>96.55%</t>
         </is>
       </c>
     </row>
